--- a/exam.xlsx
+++ b/exam.xlsx
@@ -1,131 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3755DAF1-AD48-4716-B9A3-3A925B23500F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B19356C-D19F-42CB-84E5-F1058BBD9660}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>English -&gt; Popular 1000</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>Mathematics -&gt; Numbers -&gt; Absolute Value</t>
-  </si>
-  <si>
-    <t>Mathematics -&gt; Numbers -&gt; Composite Number</t>
-  </si>
-  <si>
-    <t>Mathematics -&gt; Numbers -&gt; Number Types</t>
-  </si>
-  <si>
-    <t>Mathematics -&gt; Numbers -&gt; Numeral System</t>
-  </si>
-  <si>
-    <t>Mathematics -&gt; Numbers -&gt; Operations</t>
-  </si>
-  <si>
-    <t>Mathematics -&gt; Numbers -&gt; Square Number</t>
-  </si>
-  <si>
-    <t>Progamming Language -&gt; Html -&gt; Element -&gt; Basic</t>
-  </si>
-  <si>
-    <t>Progamming Language -&gt; Html -&gt; Element -&gt; Empty</t>
-  </si>
-  <si>
-    <t>Progamming Language -&gt; Html -&gt; Element -&gt; Level</t>
-  </si>
-  <si>
-    <t>Progamming Language -&gt; Html -&gt; Element -&gt; Nesting</t>
-  </si>
-  <si>
-    <t>Progamming Language -&gt; Html -&gt; Tag -&gt; Basic</t>
-  </si>
-  <si>
-    <t>Progamming Language -&gt; Html -&gt; Tag -&gt; Comment</t>
-  </si>
-  <si>
-    <t>Progamming Language -&gt; Html -&gt; Tag -&gt; Doctype</t>
-  </si>
-  <si>
-    <t>Progamming Language -&gt; Html -&gt; Tag -&gt; Html</t>
-  </si>
-  <si>
-    <t>Progamming Language -&gt; Html -&gt; Tag -&gt; Head</t>
-  </si>
-  <si>
-    <t>Progamming Language -&gt; Html -&gt; Tag -&gt; Heading</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; Html -&gt; Basic</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; SQLite -&gt; Basic</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; Python -&gt; Core -&gt; Interactive Mode</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; Python -&gt; Core -&gt; Module</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -225,34 +135,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -552,214 +453,276 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850B5C77-C596-4766-9492-30774790E98A}">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.09765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.59765625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="2.09765625" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col width="2.09765625" customWidth="1" style="4" min="1" max="1"/>
+    <col width="9.796875" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="70.59765625" customWidth="1" style="6" min="3" max="3"/>
+    <col width="2.09765625" customWidth="1" style="9" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.796875" customWidth="1" style="1" min="6" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" ht="16.2" customFormat="1" customHeight="1" s="3" thickBot="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Questions</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Topic</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="n"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>English -&gt; Popular 1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>Mathematics -&gt; Numbers -&gt; Numeral System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Mathematics -&gt; Numbers -&gt; Number Types</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>Mathematics -&gt; Numbers -&gt; Absolute Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>Mathematics -&gt; Numbers -&gt; Square Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>Mathematics -&gt; Numbers -&gt; Composite Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>Mathematics -&gt; Numbers -&gt; Operations</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="7">
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html -&gt; Basic</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html -&gt; Element -&gt; Basic</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html -&gt; Element -&gt; Empty</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html -&gt; Element -&gt; Level</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html -&gt; Element -&gt; Nesting</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html -&gt; Tag -&gt; Basic</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html -&gt; Tag -&gt; Comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html -&gt; Tag -&gt; Doctype</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html -&gt; Tag -&gt; Html</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html -&gt; Tag -&gt; Head</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html -&gt; Tag -&gt; Heading</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; SQLite -&gt; Basic</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Python -&gt; Core -&gt; Interactive Mode</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
-        <v>3</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
-        <v>3</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
-        <v>3</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
-        <v>3</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
-        <v>5</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
-        <v>5</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
-        <v>10</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>24</v>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Python -&gt; Core -&gt; Module</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html -&gt; Element -&gt; Basic</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/exam.xlsx
+++ b/exam.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -460,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -470,8 +470,8 @@
     <col width="9.796875" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
     <col width="70.59765625" customWidth="1" style="6" min="3" max="3"/>
     <col width="2.09765625" customWidth="1" style="9" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="1" min="5" max="5"/>
-    <col width="8.796875" customWidth="1" style="1" min="6" max="16384"/>
+    <col width="8.796875" customWidth="1" style="1" min="5" max="6"/>
+    <col width="8.796875" customWidth="1" style="1" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.2" customFormat="1" customHeight="1" s="3" thickBot="1">
@@ -500,7 +500,7 @@
     </row>
     <row r="3">
       <c r="B3" s="7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
     </row>
     <row r="5">
       <c r="B5" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="B6" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
     </row>
     <row r="7">
       <c r="B7" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
     </row>
     <row r="8">
       <c r="B8" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
     </row>
     <row r="9">
       <c r="B9" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
     </row>
     <row r="12">
       <c r="B12" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="6" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
     </row>
     <row r="13">
       <c r="B13" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="6" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
     </row>
     <row r="14">
       <c r="B14" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
     </row>
     <row r="15">
       <c r="B15" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
     </row>
     <row r="16">
       <c r="B16" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
     </row>
     <row r="17">
       <c r="B17" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="6" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
     </row>
     <row r="18">
       <c r="B18" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="6" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
     </row>
     <row r="19">
       <c r="B19" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
     </row>
     <row r="20">
       <c r="B20" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="6" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
     </row>
     <row r="21">
       <c r="B21" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="6" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
     </row>
     <row r="24">
       <c r="B24" s="7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C24" s="6" t="inlineStr">
         <is>
@@ -718,13 +718,7 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Html -&gt; Element -&gt; Basic</t>
-        </is>
-      </c>
-    </row>
+    <row r="25"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">

--- a/exam.xlsx
+++ b/exam.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -132,28 +132,96 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -460,21 +528,21 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" zoomScale="150" zoomScaleNormal="150">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="2.09765625" customWidth="1" style="4" min="1" max="1"/>
-    <col width="9.796875" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
-    <col width="70.59765625" customWidth="1" style="6" min="3" max="3"/>
-    <col width="2.09765625" customWidth="1" style="9" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="1" min="5" max="6"/>
-    <col width="8.796875" customWidth="1" style="1" min="7" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="4" width="2.09765625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="7" width="9.796875"/>
+    <col customWidth="1" max="3" min="3" style="6" width="70.59765625"/>
+    <col customWidth="1" max="4" min="4" style="9" width="2.09765625"/>
+    <col customWidth="1" max="6" min="5" style="1" width="8.796875"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="8.796875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" customFormat="1" customHeight="1" s="3" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="16.2" r="1" s="3" thickBot="1">
       <c r="A1" s="2" t="n"/>
       <c r="B1" s="5" t="inlineStr">
         <is>
@@ -721,7 +789,7 @@
     <row r="25"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -732,6 +800,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/exam.xlsx
+++ b/exam.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -132,96 +132,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -526,23 +458,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" zoomScale="150" zoomScaleNormal="150">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="2.09765625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="7" width="9.796875"/>
-    <col customWidth="1" max="3" min="3" style="6" width="70.59765625"/>
-    <col customWidth="1" max="4" min="4" style="9" width="2.09765625"/>
-    <col customWidth="1" max="6" min="5" style="1" width="8.796875"/>
-    <col customWidth="1" max="16384" min="7" style="1" width="8.796875"/>
+    <col width="2.09765625" customWidth="1" style="4" min="1" max="1"/>
+    <col width="9.796875" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="70.59765625" customWidth="1" style="6" min="3" max="3"/>
+    <col width="2.09765625" customWidth="1" style="9" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="1" min="5" max="9"/>
+    <col width="8.796875" customWidth="1" style="1" min="10" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="16.2" r="1" s="3" thickBot="1">
+    <row r="1" ht="16.2" customFormat="1" customHeight="1" s="3" thickBot="1">
       <c r="A1" s="2" t="n"/>
       <c r="B1" s="5" t="inlineStr">
         <is>
@@ -568,7 +500,7 @@
     </row>
     <row r="3">
       <c r="B3" s="7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
@@ -588,11 +520,11 @@
     </row>
     <row r="5">
       <c r="B5" s="7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
-          <t>Mathematics -&gt; Numbers -&gt; Numeral System</t>
+          <t>Mathematics -&gt; Numbers</t>
         </is>
       </c>
     </row>
@@ -602,194 +534,84 @@
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>Mathematics -&gt; Numbers -&gt; Number Types</t>
+          <t>Programming Language -&gt; Html -&gt; Basic</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>Mathematics -&gt; Numbers -&gt; Absolute Value</t>
+          <t>Programming Language -&gt; Html -&gt; Element</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>Mathematics -&gt; Numbers -&gt; Square Number</t>
+          <t>Programming Language -&gt; Html -&gt; Tag</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>Mathematics -&gt; Numbers -&gt; Composite Number</t>
+          <t>Programming Language -&gt; SQLite -&gt; Basic</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>Mathematics -&gt; Numbers -&gt; Operations</t>
+          <t>Programming Language -&gt; SQLite -&gt; Commands</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>Programming Language -&gt; Html -&gt; Basic</t>
+          <t>Programming Language -&gt; Python -&gt; Basic -&gt; Interactive Mode</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>Programming Language -&gt; Html -&gt; Element -&gt; Basic</t>
+          <t>Programming Language -&gt; Python -&gt; Basic -&gt; Theory</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>Programming Language -&gt; Html -&gt; Element -&gt; Empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Html -&gt; Element -&gt; Level</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Html -&gt; Element -&gt; Nesting</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Html -&gt; Tag -&gt; Basic</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Html -&gt; Tag -&gt; Comment</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Html -&gt; Tag -&gt; Doctype</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Html -&gt; Tag -&gt; Html</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Html -&gt; Tag -&gt; Head</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Html -&gt; Tag -&gt; Heading</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; SQLite -&gt; Basic</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Python -&gt; Core -&gt; Interactive Mode</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Python -&gt; Core -&gt; Module</t>
-        </is>
-      </c>
-    </row>
-    <row r="25"/>
+          <t>Programming Language -&gt; Python -&gt; Basic -&gt; Module</t>
+        </is>
+      </c>
+    </row>
+    <row r="14"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -800,6 +622,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/exam.xlsx
+++ b/exam.xlsx
@@ -1,41 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D5C1C7-1DEF-4B4E-B9CD-6807A7D23890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>English -&gt; Popular 1000</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>Mathematics -&gt; Numbers</t>
+  </si>
+  <si>
+    <t>Programming Language -&gt; SQLite -&gt; Basic</t>
+  </si>
+  <si>
+    <t>Programming Language -&gt; SQLite -&gt; Commands</t>
+  </si>
+  <si>
+    <t>Programming Language -&gt; Python -&gt; Basic -&gt; Interactive Mode</t>
+  </si>
+  <si>
+    <t>Programming Language -&gt; Python -&gt; Basic -&gt; Theory</t>
+  </si>
+  <si>
+    <t>Programming Language -&gt; Python -&gt; Basic -&gt; Module</t>
+  </si>
+  <si>
+    <t>Mathematics -&gt; Numbers -&gt; Factors</t>
+  </si>
+  <si>
+    <t>Programming Language -&gt; Html</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,25 +184,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -453,162 +511,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="2.09765625" customWidth="1" style="4" min="1" max="1"/>
-    <col width="9.796875" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
-    <col width="70.59765625" customWidth="1" style="6" min="3" max="3"/>
-    <col width="2.09765625" customWidth="1" style="9" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="1" min="5" max="9"/>
-    <col width="8.796875" customWidth="1" style="1" min="10" max="16384"/>
+    <col min="1" max="1" width="2.09765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.59765625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="2.09765625" style="9" customWidth="1"/>
+    <col min="5" max="10" width="8.796875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" customFormat="1" customHeight="1" s="3" thickBot="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>Questions</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>Topic</t>
-        </is>
-      </c>
-      <c r="D1" s="8" t="n"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="7" t="n">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="7">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>English -&gt; Popular 1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="7" t="n">
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
         <v>30</v>
       </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="7" t="n">
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>Life</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="7" t="n">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Mathematics -&gt; Numbers</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Html -&gt; Basic</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Html -&gt; Element</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="7" t="n">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Html -&gt; Tag</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="7" t="n">
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; SQLite -&gt; Basic</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="7" t="n">
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; SQLite -&gt; Commands</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Python -&gt; Basic -&gt; Interactive Mode</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="7" t="n">
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Python -&gt; Basic -&gt; Theory</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Python -&gt; Basic -&gt; Module</t>
-        </is>
-      </c>
-    </row>
-    <row r="14"/>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">

--- a/exam.xlsx
+++ b/exam.xlsx
@@ -1,90 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D5C1C7-1DEF-4B4E-B9CD-6807A7D23890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>English -&gt; Popular 1000</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>Mathematics -&gt; Numbers</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; SQLite -&gt; Basic</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; SQLite -&gt; Commands</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; Python -&gt; Basic -&gt; Interactive Mode</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; Python -&gt; Basic -&gt; Theory</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; Python -&gt; Basic -&gt; Module</t>
-  </si>
-  <si>
-    <t>Mathematics -&gt; Numbers -&gt; Factors</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; Html</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -184,34 +135,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -511,121 +453,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.09765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.59765625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="2.09765625" style="9" customWidth="1"/>
-    <col min="5" max="10" width="8.796875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="1"/>
+    <col width="2.09765625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="9.796875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="70.59765625" customWidth="1" style="5" min="3" max="3"/>
+    <col width="2.09765625" customWidth="1" style="8" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="9" min="5" max="13"/>
+    <col width="8.796875" customWidth="1" style="9" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" ht="16.2" customFormat="1" customHeight="1" s="2" thickBot="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Questions</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Topic</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="n"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>English -&gt; Popular 1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="7">
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Mathematics -&gt; Numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
-        <v>30</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Mathematics -&gt; Numbers -&gt; Factors</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; SQLite -&gt; Basic</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; SQLite -&gt; Commands</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="6" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Python -&gt; Basic -&gt; Interactive Mode</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Python -&gt; Basic -&gt; Theory</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Python -&gt; Basic -&gt; Module</t>
+        </is>
+      </c>
+    </row>
+    <row r="13"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">
@@ -640,5 +613,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/exam.xlsx
+++ b/exam.xlsx
@@ -460,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -470,8 +470,8 @@
     <col width="9.796875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
     <col width="70.59765625" customWidth="1" style="5" min="3" max="3"/>
     <col width="2.09765625" customWidth="1" style="8" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="9" min="5" max="13"/>
-    <col width="8.796875" customWidth="1" style="9" min="14" max="16384"/>
+    <col width="8.796875" customWidth="1" style="9" min="5" max="14"/>
+    <col width="8.796875" customWidth="1" style="9" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.2" customFormat="1" customHeight="1" s="2" thickBot="1">
@@ -540,7 +540,7 @@
     </row>
     <row r="7">
       <c r="B7" s="6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>

--- a/exam.xlsx
+++ b/exam.xlsx
@@ -458,10 +458,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -470,8 +470,8 @@
     <col width="9.796875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
     <col width="70.59765625" customWidth="1" style="5" min="3" max="3"/>
     <col width="2.09765625" customWidth="1" style="8" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="9" min="5" max="14"/>
-    <col width="8.796875" customWidth="1" style="9" min="15" max="16384"/>
+    <col width="8.796875" customWidth="1" style="9" min="5" max="15"/>
+    <col width="8.796875" customWidth="1" style="9" min="16" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.2" customFormat="1" customHeight="1" s="2" thickBot="1">
@@ -500,7 +500,7 @@
     </row>
     <row r="3">
       <c r="B3" s="6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
@@ -530,75 +530,35 @@
     </row>
     <row r="6">
       <c r="B6" s="6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>Mathematics -&gt; Numbers -&gt; Factors</t>
+          <t>Programming Language -&gt; Html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Programming Language -&gt; Html</t>
+          <t>Programming Language -&gt; SQLite</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>Programming Language -&gt; SQLite -&gt; Basic</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; SQLite -&gt; Commands</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Python -&gt; Basic -&gt; Interactive Mode</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Python -&gt; Basic -&gt; Theory</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Python -&gt; Basic -&gt; Module</t>
-        </is>
-      </c>
-    </row>
-    <row r="13"/>
+          <t>Programming Language -&gt; Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">

--- a/exam.xlsx
+++ b/exam.xlsx
@@ -458,10 +458,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -470,8 +470,8 @@
     <col width="9.796875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
     <col width="70.59765625" customWidth="1" style="5" min="3" max="3"/>
     <col width="2.09765625" customWidth="1" style="8" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="9" min="5" max="15"/>
-    <col width="8.796875" customWidth="1" style="9" min="16" max="16384"/>
+    <col width="8.796875" customWidth="1" style="9" min="5" max="16"/>
+    <col width="8.796875" customWidth="1" style="9" min="17" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.2" customFormat="1" customHeight="1" s="2" thickBot="1">
@@ -530,35 +530,55 @@
     </row>
     <row r="6">
       <c r="B6" s="6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>Programming Language -&gt; Html</t>
+          <t>Mathematics -&gt; Numbers -&gt; Factors</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Programming Language -&gt; SQLite</t>
+          <t>Mathematics -&gt; Numbers -&gt; Multiples</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
+          <t>Programming Language -&gt; Html</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; SQLite</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
           <t>Programming Language -&gt; Python</t>
         </is>
       </c>
     </row>
-    <row r="9"/>
+    <row r="11"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">

--- a/exam.xlsx
+++ b/exam.xlsx
@@ -458,10 +458,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -470,8 +470,8 @@
     <col width="9.796875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
     <col width="70.59765625" customWidth="1" style="5" min="3" max="3"/>
     <col width="2.09765625" customWidth="1" style="8" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="9" min="5" max="16"/>
-    <col width="8.796875" customWidth="1" style="9" min="17" max="16384"/>
+    <col width="8.796875" customWidth="1" style="9" min="5" max="17"/>
+    <col width="8.796875" customWidth="1" style="9" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.2" customFormat="1" customHeight="1" s="2" thickBot="1">
@@ -490,7 +490,7 @@
     </row>
     <row r="2">
       <c r="B2" s="6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
     </row>
     <row r="3">
       <c r="B3" s="6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
     </row>
     <row r="4">
       <c r="B4" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
     </row>
     <row r="5">
       <c r="B5" s="6" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
@@ -530,55 +530,35 @@
     </row>
     <row r="6">
       <c r="B6" s="6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>Mathematics -&gt; Numbers -&gt; Factors</t>
+          <t>Programming Language -&gt; Html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Mathematics -&gt; Numbers -&gt; Multiples</t>
+          <t>Programming Language -&gt; SQLite</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>Programming Language -&gt; Html</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; SQLite</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
           <t>Programming Language -&gt; Python</t>
         </is>
       </c>
     </row>
-    <row r="11"/>
+    <row r="9"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">

--- a/exam.xlsx
+++ b/exam.xlsx
@@ -1,41 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89D4581-001C-42A6-9F78-881E26831063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>English -&gt; Popular 1000</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>Mathematics -&gt; Numbers</t>
+  </si>
+  <si>
+    <t>Programming Language -&gt; Html</t>
+  </si>
+  <si>
+    <t>Programming Language -&gt; SQLite</t>
+  </si>
+  <si>
+    <t>Programming Language -&gt; Python</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,25 +172,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -453,112 +499,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="2.09765625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="9.796875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="70.59765625" customWidth="1" style="5" min="3" max="3"/>
-    <col width="2.09765625" customWidth="1" style="8" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="9" min="5" max="17"/>
-    <col width="8.796875" customWidth="1" style="9" min="18" max="16384"/>
+    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.59765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="2.09765625" style="8" customWidth="1"/>
+    <col min="5" max="18" width="8.796875" style="9" customWidth="1"/>
+    <col min="19" max="16384" width="8.796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" customFormat="1" customHeight="1" s="2" thickBot="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Questions</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Topic</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="n"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="6" t="n">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>English -&gt; Popular 1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="6" t="n">
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="6" t="n">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Life</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>Mathematics -&gt; Numbers</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Html</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; SQLite</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Python</t>
-        </is>
-      </c>
-    </row>
-    <row r="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">
@@ -573,6 +596,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/exam.xlsx
+++ b/exam.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89D4581-001C-42A6-9F78-881E26831063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Questions</t>
   </si>
@@ -52,27 +46,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -169,37 +164,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -499,92 +485,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" zoomScale="150" zoomScaleNormal="150">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.59765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="2.09765625" style="8" customWidth="1"/>
-    <col min="5" max="18" width="8.796875" style="9" customWidth="1"/>
-    <col min="19" max="16384" width="8.796875" style="9"/>
+    <col customWidth="1" max="1" min="1" style="3" width="2.09765625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="9.796875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="70.59765625"/>
+    <col customWidth="1" max="4" min="4" style="8" width="2.09765625"/>
+    <col customWidth="1" max="18" min="5" style="9" width="8.796875"/>
+    <col customWidth="1" max="16384" min="19" style="9" width="8.796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+    <row customFormat="1" customHeight="1" ht="16.2" r="1" s="2" spans="1:4" thickBot="1">
+      <c r="A1" s="1" t="n"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="6">
+      <c r="D1" s="7" t="n"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="6" t="n">
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
+    <row r="3" spans="1:4">
+      <c r="B3" s="6" t="n">
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+    <row r="4" spans="1:4">
+      <c r="B4" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+    <row r="5" spans="1:4">
+      <c r="B5" s="6" t="n">
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+    <row r="6" spans="1:4">
+      <c r="B6" s="6" t="n">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+    <row r="7" spans="1:4">
+      <c r="B7" s="6" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+    <row r="8" spans="1:4">
+      <c r="B8" s="6" t="n">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:4"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -595,7 +586,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/exam.xlsx
+++ b/exam.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,38 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>English -&gt; Popular 1000</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>Mathematics -&gt; Numbers</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; Html</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; SQLite</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; Python</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -164,28 +132,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -492,90 +460,108 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" zoomScale="150" zoomScaleNormal="150">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="2.09765625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="9.796875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="70.59765625"/>
-    <col customWidth="1" max="4" min="4" style="8" width="2.09765625"/>
-    <col customWidth="1" max="18" min="5" style="9" width="8.796875"/>
-    <col customWidth="1" max="16384" min="19" style="9" width="8.796875"/>
+    <col width="2.09765625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="9.796875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="70.59765625" customWidth="1" style="5" min="3" max="3"/>
+    <col width="2.09765625" customWidth="1" style="8" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="9" min="5" max="19"/>
+    <col width="8.796875" customWidth="1" style="9" min="20" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="16.2" r="1" s="2" spans="1:4" thickBot="1">
+    <row r="1" ht="16.2" customFormat="1" customHeight="1" s="2" thickBot="1">
       <c r="A1" s="1" t="n"/>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Questions</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Topic</t>
+        </is>
       </c>
       <c r="D1" s="7" t="n"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="B2" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>English -&gt; Popular 1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Mathematics -&gt; Numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="B6" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Sqlite</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4"/>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -586,7 +572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/exam.xlsx
+++ b/exam.xlsx
@@ -154,6 +154,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/exam.xlsx
+++ b/exam.xlsx
@@ -154,74 +154,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/exam.xlsx
+++ b/exam.xlsx
@@ -1,41 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226D56F9-7283-4325-B42B-31E273716444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>English -&gt; Popular 1000</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>Mathematics -&gt; Numbers</t>
+  </si>
+  <si>
+    <t>Programming Language -&gt; Html</t>
+  </si>
+  <si>
+    <t>Programming Language -&gt; Sqlite</t>
+  </si>
+  <si>
+    <t>Programming Language -&gt; Python</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,25 +172,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -453,115 +499,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="2.09765625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="9.796875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="70.59765625" customWidth="1" style="5" min="3" max="3"/>
-    <col width="2.09765625" customWidth="1" style="8" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="9" min="5" max="19"/>
-    <col width="8.796875" customWidth="1" style="9" min="20" max="16384"/>
+    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.59765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="2.09765625" style="8" customWidth="1"/>
+    <col min="5" max="23" width="8.796875" style="9" customWidth="1"/>
+    <col min="24" max="16384" width="8.796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" customFormat="1" customHeight="1" s="2" thickBot="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Questions</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Topic</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="n"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="6" t="n">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>English -&gt; Popular 1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="6" t="n">
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="6" t="n">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Life</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="6" t="n">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>Mathematics -&gt; Numbers</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="6" t="n">
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Html</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="6" t="n">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Sqlite</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="6" t="n">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Python</t>
-        </is>
-      </c>
-    </row>
-    <row r="9"/>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -573,6 +596,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/exam.xlsx
+++ b/exam.xlsx
@@ -1,78 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226D56F9-7283-4325-B42B-31E273716444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>English -&gt; Popular 1000</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>Mathematics -&gt; Numbers</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; Html</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; Sqlite</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; Python</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -172,34 +135,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -499,89 +453,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.59765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="2.09765625" style="8" customWidth="1"/>
-    <col min="5" max="23" width="8.796875" style="9" customWidth="1"/>
-    <col min="24" max="16384" width="8.796875" style="9"/>
+    <col width="2.09765625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="9.796875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="70.59765625" customWidth="1" style="5" min="3" max="3"/>
+    <col width="2.09765625" customWidth="1" style="8" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="9" min="5" max="23"/>
+    <col width="8.796875" customWidth="1" style="9" min="24" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="6">
+    <row r="1" ht="16.2" customFormat="1" customHeight="1" s="2" thickBot="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Questions</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Topic</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="n"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>English -&gt; Popular 1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="6" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Mathematics -&gt; Numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="6" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Sqlite</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="2">
@@ -596,6 +573,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/exam.xlsx
+++ b/exam.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -470,8 +470,8 @@
     <col width="9.796875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
     <col width="70.59765625" customWidth="1" style="5" min="3" max="3"/>
     <col width="2.09765625" customWidth="1" style="8" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="9" min="5" max="23"/>
-    <col width="8.796875" customWidth="1" style="9" min="24" max="16384"/>
+    <col width="8.796875" customWidth="1" style="9" min="5" max="24"/>
+    <col width="8.796875" customWidth="1" style="9" min="25" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.2" customFormat="1" customHeight="1" s="2" thickBot="1">
@@ -490,7 +490,7 @@
     </row>
     <row r="2">
       <c r="B2" s="6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
     </row>
     <row r="3">
       <c r="B3" s="6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
     </row>
     <row r="4">
       <c r="B4" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
     </row>
     <row r="5">
       <c r="B5" s="6" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="B6" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
     </row>
     <row r="7">
       <c r="B7" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
     </row>
     <row r="8">
       <c r="B8" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>

--- a/exam.xlsx
+++ b/exam.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="5760" yWindow="3396"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,38 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>English -&gt; Popular 1000</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>Mathematics -&gt; Numbers</t>
+  </si>
+  <si>
+    <t>Programming Language -&gt; Html</t>
+  </si>
+  <si>
+    <t>Programming Language -&gt; Sqlite</t>
+  </si>
+  <si>
+    <t>Programming Language -&gt; Python</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -132,28 +164,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -460,108 +492,90 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" zoomScale="150" zoomScaleNormal="150">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="2.09765625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="9.796875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="70.59765625" customWidth="1" style="5" min="3" max="3"/>
-    <col width="2.09765625" customWidth="1" style="8" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="9" min="5" max="24"/>
-    <col width="8.796875" customWidth="1" style="9" min="25" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="3" width="2.09765625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="9.796875"/>
+    <col customWidth="1" max="3" min="3" style="5" width="70.59765625"/>
+    <col customWidth="1" max="4" min="4" style="8" width="2.09765625"/>
+    <col customWidth="1" max="24" min="5" style="9" width="8.796875"/>
+    <col customWidth="1" max="16384" min="25" style="9" width="8.796875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" customFormat="1" customHeight="1" s="2" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="16.2" r="1" s="2" spans="1:4" thickBot="1">
       <c r="A1" s="1" t="n"/>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Questions</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Topic</t>
-        </is>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="7" t="n"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="B2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>English -&gt; Popular 1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Life</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>Mathematics -&gt; Numbers</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Html</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Sqlite</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>Programming Language -&gt; Python</t>
-        </is>
-      </c>
-    </row>
-    <row r="9"/>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -572,7 +586,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/exam.xlsx
+++ b/exam.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="5760" yWindow="3396"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,38 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>English -&gt; Popular 1000</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>Mathematics -&gt; Numbers</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; Html</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; Sqlite</t>
-  </si>
-  <si>
-    <t>Programming Language -&gt; Python</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -164,28 +132,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -492,90 +460,108 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" zoomScale="150" zoomScaleNormal="150">
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="2.09765625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="9.796875"/>
-    <col customWidth="1" max="3" min="3" style="5" width="70.59765625"/>
-    <col customWidth="1" max="4" min="4" style="8" width="2.09765625"/>
-    <col customWidth="1" max="24" min="5" style="9" width="8.796875"/>
-    <col customWidth="1" max="16384" min="25" style="9" width="8.796875"/>
+    <col width="2.09765625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="9.796875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="70.59765625" customWidth="1" style="5" min="3" max="3"/>
+    <col width="2.09765625" customWidth="1" style="8" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="9" min="5" max="24"/>
+    <col width="8.796875" customWidth="1" style="9" min="25" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="16.2" r="1" s="2" spans="1:4" thickBot="1">
+    <row r="1" ht="16.2" customFormat="1" customHeight="1" s="2" thickBot="1">
       <c r="A1" s="1" t="n"/>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Questions</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Topic</t>
+        </is>
       </c>
       <c r="D1" s="7" t="n"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="B2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>English -&gt; Popular 1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Life</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Mathematics -&gt; Numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="B6" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Html</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Sqlite</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4"/>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Programming Language -&gt; Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -586,7 +572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/exam.xlsx
+++ b/exam.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -470,8 +470,8 @@
     <col width="9.796875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
     <col width="70.59765625" customWidth="1" style="5" min="3" max="3"/>
     <col width="2.09765625" customWidth="1" style="8" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="9" min="5" max="24"/>
-    <col width="8.796875" customWidth="1" style="9" min="25" max="16384"/>
+    <col width="8.796875" customWidth="1" style="9" min="5" max="25"/>
+    <col width="8.796875" customWidth="1" style="9" min="26" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.2" customFormat="1" customHeight="1" s="2" thickBot="1">
@@ -520,7 +520,7 @@
     </row>
     <row r="5">
       <c r="B5" s="6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="B6" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
     </row>
     <row r="7">
       <c r="B7" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
     </row>
     <row r="8">
       <c r="B8" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>

--- a/exam.xlsx
+++ b/exam.xlsx
@@ -470,8 +470,8 @@
     <col width="9.796875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
     <col width="70.59765625" customWidth="1" style="5" min="3" max="3"/>
     <col width="2.09765625" customWidth="1" style="8" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="9" min="5" max="25"/>
-    <col width="8.796875" customWidth="1" style="9" min="26" max="16384"/>
+    <col width="8.796875" customWidth="1" style="9" min="5" max="26"/>
+    <col width="8.796875" customWidth="1" style="9" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.2" customFormat="1" customHeight="1" s="2" thickBot="1">
@@ -520,7 +520,7 @@
     </row>
     <row r="5">
       <c r="B5" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="B6" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
     </row>
     <row r="7">
       <c r="B7" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
     </row>
     <row r="8">
       <c r="B8" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
